--- a/Kimeco_ASP/App_Data/uploads/HCM_Office_Report.xlsx
+++ b/Kimeco_ASP/App_Data/uploads/HCM_Office_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="351">
   <si>
     <t xml:space="preserve">HCM_Office- Daily Report</t>
   </si>
@@ -173,9 +173,6 @@
     <t xml:space="preserve">6047339</t>
   </si>
   <si>
-    <t xml:space="preserve">01/03/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">02/03/2018</t>
   </si>
   <si>
@@ -530,10 +527,10 @@
     <t xml:space="preserve">April</t>
   </si>
   <si>
-    <t xml:space="preserve">145225000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134931449</t>
+    <t xml:space="preserve">145245000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134951449</t>
   </si>
   <si>
     <t xml:space="preserve">02/05/2018</t>
@@ -1050,19 +1047,82 @@
   </si>
   <si>
     <t xml:space="preserve">No Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB0140093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="64">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1398,7 +1458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1411,6 +1471,69 @@
       <right/>
       <top/>
       <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border>
@@ -1858,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2050,6 +2173,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2602,19 +2752,21 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
       <c r="F21"/>
       <c r="G21" t="s">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
@@ -2623,15 +2775,13 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
+      <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I22"/>
     </row>
@@ -2646,19 +2796,21 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
       <c r="F23"/>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
@@ -2681,7 +2833,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
@@ -2698,13 +2850,13 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -2714,20 +2866,24 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26"/>
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26"/>
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -2737,24 +2893,20 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
@@ -2764,20 +2916,20 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
@@ -2787,20 +2939,20 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
@@ -2809,21 +2961,19 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
@@ -2832,19 +2982,21 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
@@ -2854,20 +3006,20 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
@@ -2877,20 +3029,20 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
@@ -2900,22 +3052,24 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35"/>
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -2923,24 +3077,22 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="s">
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -2948,20 +3100,20 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -2971,20 +3123,20 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
@@ -2994,22 +3146,24 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39"/>
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -3017,24 +3171,22 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="s">
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B40"/>
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -3042,20 +3194,20 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="s">
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
@@ -3065,20 +3217,24 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41"/>
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
       <c r="G41" t="s">
         <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41"/>
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
@@ -3088,24 +3244,20 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" t="s">
-        <v>98</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
@@ -3119,16 +3271,16 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
         <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
       </c>
       <c r="I43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
@@ -3145,13 +3297,13 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
@@ -3161,65 +3313,67 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I45"/>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="A46" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I46"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="18" t="s">
+      <c r="A47" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="19"/>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -3228,23 +3382,23 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="s">
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -3253,23 +3407,23 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -3278,23 +3432,23 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="I50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -3303,23 +3457,23 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -3328,23 +3482,23 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -3353,23 +3507,23 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="s">
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -3378,23 +3532,23 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="s">
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -3403,23 +3557,23 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="s">
         <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -3428,23 +3582,23 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="s">
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -3453,23 +3607,23 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -3478,23 +3632,23 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="s">
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -3503,23 +3657,23 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="s">
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -3528,23 +3682,23 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="s">
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -3553,23 +3707,23 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="s">
         <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -3578,23 +3732,23 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="s">
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -3603,23 +3757,23 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="s">
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="I63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -3628,23 +3782,23 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="s">
         <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="I64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -3653,23 +3807,23 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="s">
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="I65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -3678,23 +3832,23 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="s">
         <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -3703,67 +3857,67 @@
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="s">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I67"/>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="A68" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I68"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H69" s="27" t="s">
+      <c r="A69" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="28"/>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -3779,16 +3933,16 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="I70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -3797,23 +3951,23 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -3829,16 +3983,16 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="I72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -3847,23 +4001,23 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="s">
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -3872,23 +4026,23 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="I74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -3897,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="s">
@@ -3910,10 +4064,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -3922,23 +4076,23 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -3947,23 +4101,23 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -3972,23 +4126,23 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="s">
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -3997,23 +4151,23 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -4029,16 +4183,16 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -4047,23 +4201,23 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="s">
         <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="I81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -4072,24 +4226,24 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s">
         <v>203</v>
       </c>
-      <c r="B83" t="s">
-        <v>204</v>
-      </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
@@ -4097,23 +4251,23 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="I83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -4122,23 +4276,23 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="s">
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="I84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -4151,19 +4305,19 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="I85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -4176,19 +4330,19 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="I86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -4197,23 +4351,23 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H87" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="I87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -4222,23 +4376,23 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="I88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -4247,73 +4401,73 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
         <v>211</v>
-      </c>
-      <c r="B90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" t="s">
-        <v>214</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="I90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
         <v>216</v>
-      </c>
-      <c r="B91" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" t="s">
-        <v>212</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -4322,67 +4476,67 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
         <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I92"/>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>70</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" t="s">
-        <v>90</v>
-      </c>
-      <c r="I93"/>
+      <c r="A93" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I93" s="37"/>
     </row>
     <row r="94">
-      <c r="A94" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="H94" s="36" t="s">
+      <c r="A94" t="s">
         <v>220</v>
       </c>
-      <c r="I94" s="37"/>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>148</v>
+      </c>
+      <c r="I94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -4391,23 +4545,23 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="s">
         <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="I95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -4416,23 +4570,23 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
         <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -4441,23 +4595,23 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
         <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="I97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -4466,23 +4620,23 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
         <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="I98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -4491,54 +4645,54 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="I99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
         <v>234</v>
-      </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>235</v>
       </c>
       <c r="E101" t="s">
         <v>236</v>
@@ -4548,241 +4702,241 @@
         <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="I101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
         <v>234</v>
       </c>
-      <c r="B102" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
-        <v>235</v>
-      </c>
       <c r="E102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
         <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I102"/>
     </row>
     <row r="103">
-      <c r="A103" t="s">
+      <c r="A103" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="39"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" s="46"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
         <v>234</v>
       </c>
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>235</v>
-      </c>
-      <c r="E103" t="s">
-        <v>239</v>
-      </c>
-      <c r="F103"/>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s">
-        <v>240</v>
-      </c>
-      <c r="I103"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H104" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="I104" s="46"/>
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>245</v>
+      </c>
+      <c r="I104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" t="s">
         <v>243</v>
       </c>
-      <c r="B105" t="s">
-        <v>244</v>
-      </c>
       <c r="C105" t="s">
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
         <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
         <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="I106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="H107" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="I108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
         <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="I109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>259</v>
+      </c>
+      <c r="B110" t="s">
         <v>256</v>
       </c>
-      <c r="B110" t="s">
-        <v>257</v>
-      </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
         <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="I110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E111" t="s">
         <v>261</v>
@@ -4792,41 +4946,41 @@
         <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="I111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="s">
         <v>15</v>
       </c>
       <c r="H112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -4835,23 +4989,23 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
         <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -4860,23 +5014,23 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="s">
         <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -4885,23 +5039,23 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="s">
         <v>15</v>
       </c>
       <c r="H115" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="I115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -4910,23 +5064,23 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="s">
         <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -4935,23 +5089,23 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="I117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -4960,23 +5114,23 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
         <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="I118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -4985,14 +5139,14 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
         <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="I119"/>
     </row>
@@ -5001,7 +5155,7 @@
         <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -5010,23 +5164,23 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="s">
         <v>15</v>
       </c>
       <c r="H120" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="I120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -5035,23 +5189,23 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
@@ -5060,23 +5214,23 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="s">
         <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -5085,23 +5239,23 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="s">
         <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="I123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5110,23 +5264,23 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
@@ -5135,23 +5289,23 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="I125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
@@ -5160,67 +5314,67 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="s">
         <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="I126"/>
     </row>
     <row r="127">
-      <c r="A127" t="s">
-        <v>293</v>
-      </c>
-      <c r="B127" t="s">
-        <v>298</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="A127" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="F127"/>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" t="s">
-        <v>48</v>
-      </c>
-      <c r="I127"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127" s="52"/>
+      <c r="G127" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H127" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="I127" s="55"/>
     </row>
     <row r="128">
-      <c r="A128" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B128" s="48"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F128" s="52"/>
-      <c r="G128" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="H128" s="54" t="s">
+      <c r="A128" t="s">
         <v>302</v>
       </c>
-      <c r="I128" s="55"/>
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>303</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128" t="s">
+        <v>304</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -5229,23 +5383,23 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="I129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -5254,23 +5408,23 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="s">
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -5279,23 +5433,23 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="s">
         <v>15</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>89</v>
       </c>
       <c r="I131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -5304,23 +5458,23 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="s">
         <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="I132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -5329,23 +5483,23 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="s">
         <v>15</v>
       </c>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="I133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -5354,23 +5508,23 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
         <v>15</v>
       </c>
       <c r="H134" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="I134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -5379,23 +5533,23 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="H135" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="I135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -5404,23 +5558,23 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="I136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
@@ -5429,23 +5583,23 @@
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="s">
         <v>15</v>
       </c>
       <c r="H137" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
@@ -5454,23 +5608,23 @@
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="s">
         <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -5479,23 +5633,23 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="H139" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="I139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -5504,23 +5658,23 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>329</v>
+        <v>15</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="I140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B141" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
@@ -5529,23 +5683,23 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="s">
         <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -5554,23 +5708,23 @@
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="I142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
@@ -5579,79 +5733,81 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="I143"/>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>337</v>
-      </c>
-      <c r="B144" t="s">
-        <v>204</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="A144" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="F144"/>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" t="s">
-        <v>193</v>
-      </c>
-      <c r="I144"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F144" s="61"/>
+      <c r="G144" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="H144" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="I144" s="64"/>
     </row>
     <row r="145">
-      <c r="A145" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="B145" s="57"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F145" s="61"/>
-      <c r="G145" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="H145" s="63" t="s">
+      <c r="A145" t="s">
         <v>341</v>
       </c>
-      <c r="I145" s="64"/>
+      <c r="B145" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>343</v>
+      </c>
+      <c r="E145" t="s">
+        <v>343</v>
+      </c>
+      <c r="F145" t="s">
+        <v>344</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>341</v>
+      </c>
+      <c r="B146" t="s">
         <v>342</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
         <v>343</v>
       </c>
-      <c r="C146" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
+        <v>343</v>
+      </c>
+      <c r="F146" t="s">
         <v>344</v>
-      </c>
-      <c r="E146" t="s">
-        <v>344</v>
-      </c>
-      <c r="F146" t="s">
-        <v>345</v>
       </c>
       <c r="G146" t="s">
         <v>31</v>
@@ -5659,7 +5815,82 @@
       <c r="H146" t="s">
         <v>31</v>
       </c>
-      <c r="I146"/>
+      <c r="I146" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147" s="70"/>
+      <c r="G147" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" s="73"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>347</v>
+      </c>
+      <c r="B148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>349</v>
+      </c>
+      <c r="E148" t="s">
+        <v>350</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>349</v>
+      </c>
+      <c r="E149" t="s">
+        <v>350</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149"/>
     </row>
   </sheetData>
   <mergeCells>
